--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -2520,22 +2520,62 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>La Coruna</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7</v>
+      </c>
+      <c r="N38" t="n">
+        <v>15</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -2578,22 +2578,62 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>23</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -2636,22 +2636,62 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M40" t="n">
+        <v>15</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -2694,22 +2694,62 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M41" t="n">
+        <v>10</v>
+      </c>
+      <c r="N41" t="n">
+        <v>18</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -2752,22 +2752,62 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M42" t="n">
+        <v>14</v>
+      </c>
+      <c r="N42" t="n">
+        <v>16</v>
+      </c>
+      <c r="O42" t="n">
+        <v>9</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -2810,22 +2810,62 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M43" t="n">
+        <v>17</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>10</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -516,22 +516,62 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16/08/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -574,22 +574,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -634,96 +634,176 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>30/08/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.59</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L5" t="n">
         <v>1.37</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M5" t="n">
         <v>11</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
         <v>15</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>7</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-    </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cultural Leonesa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M6" t="n">
+        <v>20</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -806,22 +806,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>24</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -864,22 +864,62 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M8" t="n">
+        <v>18</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -922,40 +922,120 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05/10/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1038,22 +1038,62 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>La Coruna</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M11" t="n">
+        <v>21</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1096,22 +1096,62 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M12" t="n">
+        <v>16</v>
+      </c>
+      <c r="N12" t="n">
+        <v>14</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1154,22 +1154,62 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Real Sociedad B</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1212,22 +1212,62 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9</v>
+      </c>
+      <c r="N14" t="n">
+        <v>16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1270,22 +1270,62 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1328,22 +1328,62 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1386,22 +1386,62 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>30/11/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1444,22 +1444,62 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1502,22 +1502,62 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M19" t="n">
+        <v>17</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>7</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1560,22 +1560,62 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1618,22 +1618,62 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1676,22 +1676,62 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M22" t="n">
+        <v>24</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1734,40 +1734,120 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M23" t="n">
+        <v>17</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>7</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>La Coruna</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1850,22 +1850,62 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/02/2026</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1908,22 +1908,62 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M26" t="n">
+        <v>19</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>

--- a/new-stats/racing-de-santander.xlsx
+++ b/new-stats/racing-de-santander.xlsx
@@ -1966,22 +1966,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15/02/2026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M27" t="n">
+        <v>11</v>
+      </c>
+      <c r="N27" t="n">
+        <v>15</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
